--- a/projects/muzeum/data_muz.xlsx
+++ b/projects/muzeum/data_muz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29653" windowHeight="15907"/>
+    <workbookView windowHeight="15907"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Настольная лампа</t>
   </si>
   <si>
-    <t>АЛЕКСАНДР2</t>
+    <t>#1_ALEX2</t>
   </si>
   <si>
     <t>Александр II</t>
@@ -46,7 +46,7 @@
     <t>Государственный банк — главный банк в дореволюционной России — был учрежден в 1860 г. в соответствии с указом Александра II на основе реорганизации Государственного коммерческого банка. Одновременно с учреждением Государственного банка императором был утвержден его Устав.</t>
   </si>
   <si>
-    <t>СЧЕТЫ</t>
+    <t>#1_ABAC</t>
   </si>
   <si>
     <t>Счёты</t>
@@ -57,6 +57,79 @@
   </si>
   <si>
     <t>schoty_abacus.jpg</t>
+  </si>
+  <si>
+    <t>#1_COIN135</t>
+  </si>
+  <si>
+    <t>135ЛЕТ</t>
+  </si>
+  <si>
+    <t>В 2019 году исполняется 135 лет с момента начала деятельности Костромского Отделения Государственного Банка.</t>
+  </si>
+  <si>
+    <t>#1_FELIX</t>
+  </si>
+  <si>
+    <t>Арифмометр "Феликс"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Феликс» — самый распространённый в СССР арифмометр. Назван в честь Феликса Дзержинского. Выпускался с 1929 по 1978 годы общим тиражом несколько миллионов машин. Всего было создано более двух десятков модификаций арифмометра. Основными производителями являлись заводы счётных машин в Курске («Счётмаш»), в Пензе (Пензенский завод вычислительной техники) и в Москве (Завод счётно-аналитических машин имени В. Д. Калмыкова (САМ)). </t>
+  </si>
+  <si>
+    <t>#1_RKC</t>
+  </si>
+  <si>
+    <t>Рассчетно-кассовый центр</t>
+  </si>
+  <si>
+    <t>#1_SHTIGLIC</t>
+  </si>
+  <si>
+    <t>Александр Людвигович Штиглиц</t>
+  </si>
+  <si>
+    <t>&lt;iframe srcdoc="&lt;html&gt;&lt;body&gt;
+&lt;div id="content"&gt;
+&lt;h1&gt;&lt;span class="referenceable"&gt;Александр Людвигович Штиглиц&lt;/span&gt;
+&lt;/h1&gt;
+&lt;!--index--&gt;
+&lt;h3 class="person_bio_position"&gt;Управляющий Государственным банком в&amp;nbsp;&lt;nobr&gt;1860–1866 гг.&lt;/nobr&gt;&lt;/h3&gt;
+&lt;div class="person_bio_photo photo with_shadow"&gt;
+&lt;img src="/photos/shtiglic_small.jpg" alt=""&gt;
+&lt;/div&gt;
+&lt;p&gt;Родился в&amp;nbsp;1814&amp;nbsp;г.&amp;nbsp;в&amp;nbsp;г. Санкт-Петербурге в&amp;nbsp;семье придворного банкира, основателя банкирского дома «&lt;mark&gt;Штиглиц&lt;/mark&gt; и&amp;nbsp;Ко» барона Людвига Ивановича &lt;mark&gt;Штиглица&lt;/mark&gt;.&lt;/p&gt;
+&lt;div class="person_bio_block"&gt;
+&lt;h4&gt;Образование&lt;/h4&gt;
+&lt;p&gt;Окончил Дерптский университет.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="person_bio_block"&gt;
+&lt;h4&gt;Трудовая деятельность&lt;/h4&gt;
+&lt;p&gt;1840&amp;nbsp;г. —&amp;nbsp;поступил на&amp;nbsp;государственную службу в&amp;nbsp;Министерство финансов на&amp;nbsp;должность члена Мануфактурного совета.&lt;/p&gt;
+&lt;p&gt;1843&amp;nbsp;г. —&amp;nbsp;после смерти отца А.&amp;nbsp;Л.&amp;nbsp;&lt;mark&gt;Штиглиц&lt;/mark&gt; вступил во&amp;nbsp;владение его состоянием и&amp;nbsp;занял должность придворного банкира.&lt;/p&gt;
+&lt;p&gt;&lt;nobr&gt;1840–1850 гг.&lt;/nobr&gt; —&amp;nbsp;успешно реализовал за&amp;nbsp;границей шесть &lt;nobr&gt;4-процентных&lt;/nobr&gt; займов на&amp;nbsp;строительство Николаевской железной дороги.&lt;/p&gt;
+&lt;p&gt;При его участии во&amp;nbsp;время Крымской войны &lt;nobr&gt;(1853–1856 гг.)&lt;/nobr&gt; были получены значительные внешние займы.&lt;/p&gt;
+&lt;p&gt;А.&amp;nbsp;Л.&amp;nbsp;&lt;mark&gt;Штиглиц&lt;/mark&gt; занимался предпринимательской деятельностью: им&amp;nbsp;были основаны в&amp;nbsp;Нарве суконная и&amp;nbsp;льнопрядильная фабрики, преобразованные в&amp;nbsp;1880&amp;nbsp;г.&amp;nbsp;в&amp;nbsp;Товарищество нарвской суконной мануфактуры, ему принадлежала Екатерингофская бумагопрядильня.&lt;/p&gt;
+&lt;p&gt;1846&amp;nbsp;г. —&amp;nbsp;избран биржевым купечеством Санкт-Петербурга председателем Биржевого комитета. Неоднократно переизбирался, занимал эту должность в&amp;nbsp;течение 13&amp;nbsp;лет.&lt;/p&gt;
+&lt;p&gt;Принимал участие во&amp;nbsp;всех крупных операциях российского правительства на&amp;nbsp;внутреннем и&amp;nbsp;внешнем рынках.&lt;/p&gt;
+&lt;p&gt;Через банкирский дом барона &lt;mark&gt;Штиглица&lt;/mark&gt; правительство России поддерживало отношения с&amp;nbsp;банкирскими домами Амстердама, Лондона и&amp;nbsp;Парижа.&lt;/p&gt;
+&lt;p&gt;1857&amp;nbsp;г. —&amp;nbsp;А.&amp;nbsp;Л.&amp;nbsp;&lt;mark&gt;Штиглиц&lt;/mark&gt; выступил соучредителем Главного общества российских железных дорог, созданного для постройки и&amp;nbsp;эксплуатации железнодорожных линий, которые должны были связывать земледельческие районы России с&amp;nbsp;Санкт-Петербургом, Москвой, Варшавой, побережьем Балтийского и&amp;nbsp;Черного морей.&lt;/p&gt;
+&lt;p&gt;1848&amp;nbsp;г. —&amp;nbsp;назначен членом Коммерческого совета Министерства финансов.&lt;/p&gt;
+&lt;p&gt;1854&amp;nbsp;г. —&amp;nbsp;«за&amp;nbsp;особенное на&amp;nbsp;пользу общую усердие» произведен в&amp;nbsp;статские советники.&lt;/p&gt;
+&lt;p&gt;1855&amp;nbsp;г. —&amp;nbsp;в&amp;nbsp;действительные статские советники.&lt;/p&gt;
+&lt;p&gt;1860&amp;nbsp;г. —&amp;nbsp;А.&amp;nbsp;Л.&amp;nbsp;&lt;mark&gt;Штиглиц&lt;/mark&gt; ликвидировал все свои частные банкирские дела и&amp;nbsp;по&amp;nbsp;собственному желанию был уволен с&amp;nbsp;должности председателя Биржевого комитета.&lt;/p&gt;
+&lt;p&gt;31&amp;nbsp;мая 1860&amp;nbsp;г. —&amp;nbsp;на&amp;nbsp;основании Указа Александра II&amp;nbsp;был учрежден Государственный банк.&lt;/p&gt;
+&lt;p&gt;10&amp;nbsp;июня 1860&amp;nbsp;г. —&amp;nbsp;А.&amp;nbsp;Л.&amp;nbsp;&lt;mark&gt;Штиглиц&lt;/mark&gt; был назначен его Управляющим.&lt;/p&gt;
+&lt;p&gt;1866&amp;nbsp;г. —&amp;nbsp;был уволен с&amp;nbsp;этой должности с&amp;nbsp;оставлением при Министерстве финансов по&amp;nbsp;кредитной части и&amp;nbsp;в&amp;nbsp;качестве почетного члена Совета торговли и&amp;nbsp;мануфактур.&lt;/p&gt;
+&lt;p&gt;1862&amp;nbsp;г. —&amp;nbsp;пожалован в&amp;nbsp;тайные советники.&lt;/p&gt;
+&lt;p&gt;1881&amp;nbsp;г. —&amp;nbsp;произведен в&amp;nbsp;действительные тайные советники.&lt;/p&gt;
+&lt;p&gt;Награжден орденами Святого Станислава III&amp;nbsp;степени, Святого Владимира IV&amp;nbsp;степени, Святой Анны II&amp;nbsp;степени, Святой Анны II&amp;nbsp;степени, украшенным императорской короной, Святого Владимира III&amp;nbsp;степени, Святого Станислава I&amp;nbsp;степени, Святой Анны I&amp;nbsp;степени, Святой Анны I&amp;nbsp;степени, украшенным императорской короной. Пожалован бриллиантовой табакеркой с&amp;nbsp;вензелем Николая&amp;nbsp;I.&lt;/p&gt;
+&lt;p&gt;Ему была объявлена высочайшая благодарность за&amp;nbsp;«ревностное исполнение должности депутата от&amp;nbsp;Санкт-Петербургского биржевого купечества при перевозке монеты и&amp;nbsp;слитков из&amp;nbsp;кладовых Экспедиции кредитных билетов в&amp;nbsp;запасную кладовую в&amp;nbsp;крепости и&amp;nbsp;освидетельствовании оной».&lt;/p&gt;
+&lt;p&gt;Умер в&amp;nbsp;1884&amp;nbsp;году.&lt;/p&gt;
+&lt;/div&gt;
+&lt;!--/index--&gt;
+&lt;/div&gt;&lt;/html&gt;&lt;/body&gt;"&gt;
+&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -64,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,31 +153,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,82 +280,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -200,31 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,175 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +528,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,31 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,160 +600,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,72 +1077,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.35" customWidth="1"/>
-    <col min="2" max="2" width="21.0166666666667" customWidth="1"/>
-    <col min="3" max="3" width="41.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.6916666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.0166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.0083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6916666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
